--- a/biology/Zoologie/Calopteryx_splendens/Calopteryx_splendens.xlsx
+++ b/biology/Zoologie/Calopteryx_splendens/Calopteryx_splendens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Calopteryx splendens, le caloptéryx éclatant ou caloptéryx splendide (anciennement agrion éclatant), est une espèce d'insectes odonates du sous-ordre des zygoptères ou demoiselles, de la famille des Calopterygidae qui ne comprend, en Europe, qu'un seul genre, Calopteryx.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le corps est long de 45 à 48 mm.
 			Calopteryx splendens femelle.
@@ -549,7 +563,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Eurasiatique, presque toute l'Europe sauf péninsule ibérique, hautes montagnes et nord de la Scandinavie.
 </t>
@@ -580,7 +596,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Zones humides, et plutôt aux abords des rivières lentes, canaux.
 </t>
@@ -611,11 +629,48 @@
           <t>Historique et dénomination</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce a été décrite par le naturaliste britannique Moses Harris en 1780 (ou en 1782, les sources varient) selon le nom Libellula splendens.
-Synonymie
-Calopteryx splendens splendens (Harris, 1780)
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été décrite par le naturaliste britannique Moses Harris en 1780 (ou en 1782, les sources varient) selon le nom Libellula splendens.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Calopteryx_splendens</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Calopteryx_splendens</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Historique et dénomination</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Calopteryx splendens splendens (Harris, 1780)
 Calopteryx splendens ancilla Selys, 1887
 Calopteryx splendens caprai Conci, 1956
 Libellula splendens Harris, 1780 protonyme
